--- a/COC_CON_0001.xlsx
+++ b/COC_CON_0001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pereirm2\Desktop\Excel Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pereirm2\Desktop\Excel 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FDF4355-DA89-46E5-BDDE-D12B0047D70E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88591233-350D-408B-9350-2B0F475C9847}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{D9F7FD87-145A-4399-B25E-7FB30D735BD1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{23E252B9-5ED6-4E97-A1FB-0B735330AA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ITEM No.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Confomrance Form </t>
   </si>
   <si>
@@ -43,9 +49,6 @@
   </si>
   <si>
     <t>Date of Sign-off: 4/23/2018</t>
-  </si>
-  <si>
-    <t>ITEM No.</t>
   </si>
   <si>
     <t>Requirement</t>
@@ -77,9 +80,6 @@
   <si>
     <t>Measure the base, four walls, and cover of the case to determine the dimenstions of each. 
 Then cross-reference that data with the specification document COC_SPEC_0001.</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Vehicle Movement in Case</t>
@@ -161,7 +161,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -172,7 +174,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -186,6 +190,89 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -204,43 +291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -257,62 +307,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -326,32 +326,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -360,48 +374,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,18 +715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3502F2FF-6BC6-4BB4-84ED-43771E59DD53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DAB0FB-48AC-4D46-93A3-239147677170}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection sqref="A1:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
     <col min="6" max="6" width="63.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
@@ -735,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -747,589 +748,588 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="20" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="21">
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="24" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
+      <c r="G5" s="10"/>
+      <c r="H5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>2</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="21">
+      <c r="G6" s="5"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="27" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="21">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="21">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="10"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="21">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="10"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="21">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="10"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>